--- a/offline/24_bus.xlsx
+++ b/offline/24_bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BF5F8-1116-4010-AD84-EB5C8D963FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65CE57B-31C7-435F-8744-B5A62F27367E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2A87A084-8292-0E46-981C-9D04D52D9924}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Bus</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Initial_output (MW)</t>
+  </si>
+  <si>
+    <t>IC Constant Cost in $</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E3B780-F058-194E-8684-15B5F1EF8C2B}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -758,7 +761,7 @@
     <col min="12" max="12" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -775,28 +778,31 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -813,28 +819,31 @@
         <v>163.02000000000001</v>
       </c>
       <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
         <v>75.849999999999994</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>1138.68</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>20</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-20</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -851,28 +860,31 @@
         <v>163.02000000000001</v>
       </c>
       <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>75.849999999999994</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>1138.68</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-20</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -889,28 +901,31 @@
         <v>19.64</v>
       </c>
       <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>1060.8800000000001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>130.63</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>76</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -927,28 +942,31 @@
         <v>19.64</v>
       </c>
       <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>1060.8800000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>130.63</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>76</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>50</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -965,28 +983,31 @@
         <v>163.02000000000001</v>
       </c>
       <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>75.849999999999994</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>1138.68</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-20</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1003,28 +1024,31 @@
         <v>163.02000000000001</v>
       </c>
       <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>75.849999999999994</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>1138.68</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>20</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-20</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1041,28 +1065,31 @@
         <v>19.64</v>
       </c>
       <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>1060.8800000000001</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>130.63</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>76</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1079,28 +1106,31 @@
         <v>19.64</v>
       </c>
       <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>1060.8800000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>130.63</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>76</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>50</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1117,28 +1147,31 @@
         <v>75.64</v>
       </c>
       <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
         <v>4754.3999999999996</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>839.45</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
       </c>
       <c r="I10">
         <v>8</v>
       </c>
       <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
         <v>100</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1155,28 +1188,31 @@
         <v>75.64</v>
       </c>
       <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>4754.3999999999996</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>839.45</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
       <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
         <v>100</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1193,28 +1229,31 @@
         <v>75.64</v>
       </c>
       <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>4754.3999999999996</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>839.45</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
       </c>
       <c r="I12">
         <v>8</v>
       </c>
       <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
         <v>100</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>15</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -1231,28 +1270,31 @@
         <v>74.75</v>
       </c>
       <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
         <v>6510</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>1159.93</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>180</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>50</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1269,28 +1311,31 @@
         <v>74.75</v>
       </c>
       <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>6510</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1159.93</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>180</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>50</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1307,28 +1352,31 @@
         <v>74.75</v>
       </c>
       <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
         <v>6510</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1159.93</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>180</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-20</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1345,28 +1393,31 @@
         <v>94.74</v>
       </c>
       <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>571.20000000000005</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>72.680000000000007</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-20</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1383,28 +1434,31 @@
         <v>94.74</v>
       </c>
       <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>571.20000000000005</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72.680000000000007</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>12</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-20</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1421,28 +1475,31 @@
         <v>94.74</v>
       </c>
       <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
         <v>571.20000000000005</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>72.680000000000007</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>12</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-20</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1459,28 +1516,31 @@
         <v>94.74</v>
       </c>
       <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>571.20000000000005</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>72.680000000000007</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>12</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-20</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1497,28 +1557,31 @@
         <v>94.74</v>
       </c>
       <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
         <v>571.20000000000005</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>72.680000000000007</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>12</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-20</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1535,28 +1598,31 @@
         <v>15.46</v>
       </c>
       <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>1696.34</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>252.67</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
       </c>
       <c r="I21">
         <v>8</v>
       </c>
       <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
         <v>50</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-20</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1573,28 +1639,31 @@
         <v>15.46</v>
       </c>
       <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
         <v>1696.34</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>252.67</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
       </c>
       <c r="I22">
         <v>8</v>
       </c>
       <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
         <v>50</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-20</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1611,28 +1680,31 @@
         <v>5.46</v>
       </c>
       <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>215.08</v>
-      </c>
-      <c r="H23">
-        <v>48</v>
       </c>
       <c r="I23">
         <v>48</v>
       </c>
       <c r="J23">
+        <v>48</v>
+      </c>
+      <c r="K23">
         <v>400</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>50</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1649,28 +1721,31 @@
         <v>5.46</v>
       </c>
       <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>215.08</v>
-      </c>
-      <c r="H24">
-        <v>48</v>
       </c>
       <c r="I24">
         <v>48</v>
       </c>
       <c r="J24">
+        <v>48</v>
+      </c>
+      <c r="K24">
         <v>400</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-50</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1687,28 +1762,31 @@
         <v>1E-3</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>1</v>
+      <c r="H25" s="3">
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <v>50</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-10</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1725,28 +1803,31 @@
         <v>1E-3</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>1</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>50</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-10</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1763,28 +1844,31 @@
         <v>1E-3</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>1</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
         <v>50</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-10</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1801,28 +1885,31 @@
         <v>1E-3</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="H28" s="3">
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>50</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-10</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>22</v>
       </c>
@@ -1839,28 +1926,31 @@
         <v>1E-3</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>1</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>50</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-10</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>22</v>
       </c>
@@ -1877,28 +1967,31 @@
         <v>1E-3</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>1</v>
+      <c r="H30" s="3">
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
         <v>50</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-10</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>23</v>
       </c>
@@ -1915,28 +2008,31 @@
         <v>15.46</v>
       </c>
       <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>1696.34</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>252.67</v>
-      </c>
-      <c r="H31">
-        <v>8</v>
       </c>
       <c r="I31">
         <v>8</v>
       </c>
       <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
         <v>50</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-10</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>23</v>
       </c>
@@ -1953,24 +2049,27 @@
         <v>15.46</v>
       </c>
       <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
         <v>1696.34</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>252.67</v>
-      </c>
-      <c r="H32">
-        <v>8</v>
       </c>
       <c r="I32">
         <v>8</v>
       </c>
       <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
         <v>50</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-10</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0</v>
       </c>
     </row>
@@ -1990,25 +2089,28 @@
       <c r="E33">
         <v>75.64</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>4754.3999999999996</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>839.45</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>24</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>48</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>240</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>50</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>50</v>
       </c>
     </row>
